--- a/HPI_country_data.xlsx
+++ b/HPI_country_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\coursework\EPPS6356\test1\_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B948B461-2204-46D8-AAB7-6A64502240FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AB788-F7CF-47A2-90B2-14CCF038C61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="8460" windowWidth="21600" windowHeight="11295" xr2:uid="{A797F034-6FAB-4D0D-A49B-E19B79EC9C25}"/>
+    <workbookView xWindow="41685" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{A797F034-6FAB-4D0D-A49B-E19B79EC9C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E109FD-1CEB-486E-A63F-A5E93E5496B8}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
